--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1933800.15</v>
+        <v>6440157.71</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80575.00999999999</v>
+        <v>165132.25</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217345.2</v>
+        <v>233019.64</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79797.73</v>
+        <v>79661.67999999999</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283410.38</v>
+        <v>283268.42</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117598.49</v>
+        <v>117177.17</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9972.290000000001</v>
+        <v>10200.42</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>182107.68</v>
+        <v>176591.46</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210245.17</v>
+        <v>210047.71</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89992.64</v>
+        <v>85029.32000000001</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>96912.97</v>
+        <v>97113.73</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84874.47</v>
+        <v>84774.09</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60278.58</v>
+        <v>60320.1</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61867.72</v>
+        <v>61988.18</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98026.66</v>
+        <v>98293.10000000001</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37103.24</v>
+        <v>37039.47</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>27071.77</v>
+        <v>29058.81</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17476.48</v>
+        <v>17379.29</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68333.31</v>
+        <v>58282.39</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>46524.44</v>
+        <v>72247.78999999999</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29352.92</v>
+        <v>29258.78</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9470.24</v>
+        <v>9468.549999999999</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54177.59</v>
+        <v>54257.34</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23209.92</v>
+        <v>23192.82</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2430.42</v>
+        <v>2423.46</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,157 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26219.84</v>
+        <v>26221.5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>187832.84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>42398.96</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>277576.86</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>28127.43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>16174.44</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Superfondo</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>948363.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>11594.03</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>646486.77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>25136.14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>20008.05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>408487.42</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>743906.5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>5375.78</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>2423.46</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1119950.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -753,7 +753,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Superfondo</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B33" t="n">

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,418 +436,546 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6440157.71</v>
+        <v>84049.78</v>
+      </c>
+      <c r="C2" t="n">
+        <v>94509.85000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165132.25</v>
+        <v>238983.06</v>
+      </c>
+      <c r="C3" t="n">
+        <v>238818.2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>233019.64</v>
+        <v>29343.6</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29313.29</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>79661.67999999999</v>
+        <v>17443.02</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17364.12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283268.42</v>
+        <v>79860.31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>79846.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>117177.17</v>
+        <v>282971.89</v>
+      </c>
+      <c r="C7" t="n">
+        <v>328410.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10200.42</v>
+        <v>11572.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11574.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176591.46</v>
+        <v>646394.6899999999</v>
+      </c>
+      <c r="C9" t="n">
+        <v>646692.49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>210047.71</v>
+        <v>9496.469999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9504.719999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85029.32000000001</v>
+        <v>19994.53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19996.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97113.73</v>
+        <v>117234.06</v>
+      </c>
+      <c r="C12" t="n">
+        <v>146514.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>84774.09</v>
+        <v>187769.35</v>
+      </c>
+      <c r="C13" t="n">
+        <v>187839.74</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60320.1</v>
+        <v>736365.6800000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>731281.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61988.18</v>
+        <v>10109.72</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10230.37</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98293.10000000001</v>
+        <v>278594.67</v>
+      </c>
+      <c r="C16" t="n">
+        <v>277593.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37039.47</v>
+        <v>42498.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42544.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29058.81</v>
+        <v>24774.58</v>
+      </c>
+      <c r="C18" t="n">
+        <v>25359.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17379.29</v>
+        <v>176757.73</v>
+      </c>
+      <c r="C19" t="n">
+        <v>184135.65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>58282.39</v>
+        <v>209910.1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>219846.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72247.78999999999</v>
+        <v>54260.57</v>
+      </c>
+      <c r="C21" t="n">
+        <v>54382.44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29258.78</v>
+        <v>23159.68</v>
+      </c>
+      <c r="C22" t="n">
+        <v>23186.18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9468.549999999999</v>
+        <v>5376.88</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5375.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54257.34</v>
+        <v>80091.08</v>
+      </c>
+      <c r="C24" t="n">
+        <v>95060.08</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23192.82</v>
+        <v>96722.13</v>
+      </c>
+      <c r="C25" t="n">
+        <v>102176.73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2423.46</v>
+        <v>30653.83</v>
+      </c>
+      <c r="C26" t="n">
+        <v>30650.72</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26221.5</v>
+        <v>2424.18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>3618.11</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>187832.84</v>
+        <v>2424.18</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3618.11</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>42398.96</v>
+        <v>30710.1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>37116.79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>277576.86</v>
+        <v>16221.41</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16184.43</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>28127.43</v>
+        <v>26225.54</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26248.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16174.44</v>
+        <v>61943.59</v>
+      </c>
+      <c r="C32" t="n">
+        <v>69990.33</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>948363.12</v>
+        <v>98044.89999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>98147.53999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>11594.03</v>
+        <v>58270.58</v>
+      </c>
+      <c r="C34" t="n">
+        <v>58260.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>646486.77</v>
+        <v>84764.14</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84985.53999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25136.14</v>
+        <v>60362.56</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60333.63</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20008.05</v>
+        <v>1118953.85</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1120946.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>408487.42</v>
+        <v>1093909.15</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1181522.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>743906.5</v>
+        <v>469797.4</v>
+      </c>
+      <c r="C39" t="n">
+        <v>469846.65</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5375.78</v>
+        <v>37039.07</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37010.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2423.46</v>
+        <v>170653.31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>176411.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1119950.69</v>
+        <v>6655479.17</v>
+      </c>
+      <c r="C42" t="n">
+        <v>6880035.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,534 +443,411 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84049.78</v>
-      </c>
-      <c r="C2" t="n">
-        <v>94509.85000000001</v>
+        <v>7455481.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>238983.06</v>
-      </c>
-      <c r="C3" t="n">
-        <v>238818.2</v>
+        <v>191166.19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29343.6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>29313.29</v>
+        <v>94509.85000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17443.02</v>
-      </c>
-      <c r="C5" t="n">
-        <v>17364.12</v>
+        <v>238818.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79860.31</v>
-      </c>
-      <c r="C6" t="n">
-        <v>79846.41</v>
+        <v>29313.29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>282971.89</v>
-      </c>
-      <c r="C7" t="n">
-        <v>328410.27</v>
+        <v>17364.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11572.31</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11574.97</v>
+        <v>79846.41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>646394.6899999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>646692.49</v>
+        <v>328410.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9496.469999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9504.719999999999</v>
+        <v>579063.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19994.53</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19996.28</v>
+        <v>11574.97</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>117234.06</v>
-      </c>
-      <c r="C12" t="n">
-        <v>146514.67</v>
+        <v>646692.49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>187769.35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>187839.74</v>
+        <v>9504.719999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>736365.6800000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>731281.3</v>
+        <v>19996.28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10109.72</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10230.37</v>
+        <v>146514.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>278594.67</v>
-      </c>
-      <c r="C16" t="n">
-        <v>277593.58</v>
+        <v>187839.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42498.8</v>
-      </c>
-      <c r="C17" t="n">
-        <v>42544.86</v>
+        <v>731281.3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>24774.58</v>
-      </c>
-      <c r="C18" t="n">
-        <v>25359.32</v>
+        <v>10230.37</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176757.73</v>
-      </c>
-      <c r="C19" t="n">
-        <v>184135.65</v>
+        <v>42544.86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>209910.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>219846.69</v>
+        <v>277593.58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>54260.57</v>
-      </c>
-      <c r="C21" t="n">
-        <v>54382.44</v>
+        <v>25359.32</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23159.68</v>
-      </c>
-      <c r="C22" t="n">
-        <v>23186.18</v>
+        <v>184135.65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5376.88</v>
-      </c>
-      <c r="C23" t="n">
-        <v>5375.02</v>
+        <v>219846.69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>80091.08</v>
-      </c>
-      <c r="C24" t="n">
-        <v>95060.08</v>
+        <v>54382.44</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96722.13</v>
-      </c>
-      <c r="C25" t="n">
-        <v>102176.73</v>
+        <v>23186.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30653.83</v>
-      </c>
-      <c r="C26" t="n">
-        <v>30650.72</v>
+        <v>5375.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2424.18</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3618.11</v>
+        <v>95060.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2424.18</v>
-      </c>
-      <c r="C28" t="n">
-        <v>3618.11</v>
+        <v>102176.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30710.1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>37116.79</v>
+        <v>30650.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16221.41</v>
-      </c>
-      <c r="C30" t="n">
-        <v>16184.43</v>
+        <v>3618.11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26225.54</v>
-      </c>
-      <c r="C31" t="n">
-        <v>26248.2</v>
+        <v>37116.79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>61943.59</v>
-      </c>
-      <c r="C32" t="n">
-        <v>69990.33</v>
+        <v>16184.43</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98044.89999999999</v>
-      </c>
-      <c r="C33" t="n">
-        <v>98147.53999999999</v>
+        <v>26248.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58270.58</v>
-      </c>
-      <c r="C34" t="n">
-        <v>58260.09</v>
+        <v>69990.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84764.14</v>
-      </c>
-      <c r="C35" t="n">
-        <v>84985.53999999999</v>
+        <v>98147.53999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60362.56</v>
-      </c>
-      <c r="C36" t="n">
-        <v>60333.63</v>
+        <v>58260.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1118953.85</v>
-      </c>
-      <c r="C37" t="n">
-        <v>1120946.22</v>
+        <v>84985.53999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1093909.15</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1181522.05</v>
+        <v>60333.63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>469797.4</v>
-      </c>
-      <c r="C39" t="n">
-        <v>469846.65</v>
+        <v>1120946.22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37039.07</v>
-      </c>
-      <c r="C40" t="n">
-        <v>37010.05</v>
+        <v>1181522.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>170653.31</v>
-      </c>
-      <c r="C41" t="n">
-        <v>176411.17</v>
+        <v>469846.65</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>6655479.17</v>
-      </c>
-      <c r="C42" t="n">
-        <v>6880035.69</v>
+        <v>37010.05</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,415 +439,531 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7455481.48</v>
+        <v>94509.85000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>94534.46000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191166.19</v>
+        <v>238818.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>239270.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94509.85000000001</v>
+        <v>29313.29</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31308.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>238818.2</v>
+        <v>17364.12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17412.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29313.29</v>
+        <v>79846.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98190.67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17364.12</v>
+        <v>328410.27</v>
+      </c>
+      <c r="C7" t="n">
+        <v>328385.78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>79846.41</v>
+        <v>579063.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>609869.29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>328410.27</v>
+        <v>11574.97</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7285.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579063.9</v>
+        <v>646692.49</v>
+      </c>
+      <c r="C10" t="n">
+        <v>646095.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11574.97</v>
+        <v>9504.719999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9488.530000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>646692.49</v>
+        <v>19996.28</v>
+      </c>
+      <c r="C12" t="n">
+        <v>20004.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9504.719999999999</v>
+        <v>146514.67</v>
+      </c>
+      <c r="C13" t="n">
+        <v>233548.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>19996.28</v>
+        <v>187839.74</v>
+      </c>
+      <c r="C14" t="n">
+        <v>187844.01</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>146514.67</v>
+        <v>731281.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>729452.8199999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>187839.74</v>
-      </c>
+        <v>10230.37</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>731281.3</v>
-      </c>
+        <v>42544.86</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10230.37</v>
-      </c>
+        <v>277593.58</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42544.86</v>
-      </c>
+        <v>25359.32</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>277593.58</v>
-      </c>
+        <v>184135.65</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>25359.32</v>
+        <v>219846.69</v>
+      </c>
+      <c r="C21" t="n">
+        <v>230285.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>184135.65</v>
+        <v>54382.44</v>
+      </c>
+      <c r="C22" t="n">
+        <v>54419.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>219846.69</v>
+        <v>23186.18</v>
+      </c>
+      <c r="C23" t="n">
+        <v>23208.67</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>54382.44</v>
+        <v>5375.02</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5374.26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>23186.18</v>
+        <v>95060.08</v>
+      </c>
+      <c r="C25" t="n">
+        <v>95107.03999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5375.02</v>
+        <v>102176.73</v>
+      </c>
+      <c r="C26" t="n">
+        <v>112199.76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>95060.08</v>
+        <v>30650.72</v>
+      </c>
+      <c r="C27" t="n">
+        <v>32094.72</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>102176.73</v>
+        <v>3618.11</v>
+      </c>
+      <c r="C28" t="n">
+        <v>3617.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>30650.72</v>
+        <v>37116.79</v>
+      </c>
+      <c r="C29" t="n">
+        <v>41361.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3618.11</v>
+        <v>16184.43</v>
+      </c>
+      <c r="C30" t="n">
+        <v>16218.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37116.79</v>
+        <v>26248.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>26182.15</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16184.43</v>
-      </c>
+        <v>69990.33</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>26248.2</v>
+        <v>98147.53999999999</v>
+      </c>
+      <c r="C33" t="n">
+        <v>98071.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>69990.33</v>
+        <v>58260.09</v>
+      </c>
+      <c r="C34" t="n">
+        <v>58343.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>98147.53999999999</v>
+        <v>84985.53999999999</v>
+      </c>
+      <c r="C35" t="n">
+        <v>84911.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>58260.09</v>
+        <v>60333.63</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60354.15</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>84985.53999999999</v>
+        <v>1120946.22</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1119813.64</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60333.63</v>
+        <v>1181522.05</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1182138.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1120946.22</v>
+        <v>469846.65</v>
+      </c>
+      <c r="C39" t="n">
+        <v>470155.03</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181522.05</v>
+        <v>37010.05</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37052.93</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>469846.65</v>
+        <v>191166.19</v>
+      </c>
+      <c r="C41" t="n">
+        <v>212230.28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>37010.05</v>
+        <v>7455481.48</v>
+      </c>
+      <c r="C42" t="n">
+        <v>7003599.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>94534.46000000001</v>
       </c>
+      <c r="D2" t="n">
+        <v>120949.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>239270.73</v>
       </c>
+      <c r="D3" t="n">
+        <v>238977.22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -483,6 +494,9 @@
       <c r="C4" t="n">
         <v>31308.64</v>
       </c>
+      <c r="D4" t="n">
+        <v>31301.64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -496,6 +510,9 @@
       <c r="C5" t="n">
         <v>17412.14</v>
       </c>
+      <c r="D5" t="n">
+        <v>17463.84</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -509,6 +526,9 @@
       <c r="C6" t="n">
         <v>98190.67</v>
       </c>
+      <c r="D6" t="n">
+        <v>98213.47</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -522,6 +542,9 @@
       <c r="C7" t="n">
         <v>328385.78</v>
       </c>
+      <c r="D7" t="n">
+        <v>328978.28</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -535,6 +558,9 @@
       <c r="C8" t="n">
         <v>609869.29</v>
       </c>
+      <c r="D8" t="n">
+        <v>609991.74</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -548,6 +574,9 @@
       <c r="C9" t="n">
         <v>7285.59</v>
       </c>
+      <c r="D9" t="n">
+        <v>7287.83</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -561,6 +590,9 @@
       <c r="C10" t="n">
         <v>646095.37</v>
       </c>
+      <c r="D10" t="n">
+        <v>645145.4399999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -574,6 +606,9 @@
       <c r="C11" t="n">
         <v>9488.530000000001</v>
       </c>
+      <c r="D11" t="n">
+        <v>9501.219999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -587,6 +622,9 @@
       <c r="C12" t="n">
         <v>20004.2</v>
       </c>
+      <c r="D12" t="n">
+        <v>20003.86</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -600,6 +638,9 @@
       <c r="C13" t="n">
         <v>233548.68</v>
       </c>
+      <c r="D13" t="n">
+        <v>249581.55</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -613,6 +654,9 @@
       <c r="C14" t="n">
         <v>187844.01</v>
       </c>
+      <c r="D14" t="n">
+        <v>187957.48</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -626,344 +670,440 @@
       <c r="C15" t="n">
         <v>729452.8199999999</v>
       </c>
+      <c r="D15" t="n">
+        <v>728300.92</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10230.37</v>
-      </c>
+          <t>Consultatio Acciones Argentina</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>268603.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>42544.86</v>
+        <v>10230.37</v>
       </c>
       <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>10198.72</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>277593.58</v>
+        <v>42544.86</v>
       </c>
       <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>42453.02</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25359.32</v>
+        <v>277593.58</v>
       </c>
       <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>272693.31</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>184135.65</v>
+        <v>25359.32</v>
       </c>
       <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>24954.68</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>219846.69</v>
-      </c>
-      <c r="C21" t="n">
-        <v>230285.08</v>
+        <v>184135.65</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>172373.97</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54382.44</v>
+        <v>219846.69</v>
       </c>
       <c r="C22" t="n">
-        <v>54419.07</v>
+        <v>230285.08</v>
+      </c>
+      <c r="D22" t="n">
+        <v>231924.27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>23186.18</v>
+        <v>54382.44</v>
       </c>
       <c r="C23" t="n">
-        <v>23208.67</v>
+        <v>54419.07</v>
+      </c>
+      <c r="D23" t="n">
+        <v>54226.45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5375.02</v>
+        <v>23186.18</v>
       </c>
       <c r="C24" t="n">
-        <v>5374.26</v>
+        <v>23208.67</v>
+      </c>
+      <c r="D24" t="n">
+        <v>23198.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95060.08</v>
+        <v>5375.02</v>
       </c>
       <c r="C25" t="n">
-        <v>95107.03999999999</v>
+        <v>5374.26</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5360.83</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>102176.73</v>
+        <v>95060.08</v>
       </c>
       <c r="C26" t="n">
-        <v>112199.76</v>
+        <v>95107.03999999999</v>
+      </c>
+      <c r="D26" t="n">
+        <v>95166.96000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>30650.72</v>
+        <v>102176.73</v>
       </c>
       <c r="C27" t="n">
-        <v>32094.72</v>
+        <v>112199.76</v>
+      </c>
+      <c r="D27" t="n">
+        <v>91858.87</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3618.11</v>
+        <v>30650.72</v>
       </c>
       <c r="C28" t="n">
-        <v>3617.28</v>
+        <v>32094.72</v>
+      </c>
+      <c r="D28" t="n">
+        <v>41202.07</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>37116.79</v>
+        <v>3618.11</v>
       </c>
       <c r="C29" t="n">
-        <v>41361.28</v>
+        <v>3617.28</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4121.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>16184.43</v>
+        <v>37116.79</v>
       </c>
       <c r="C30" t="n">
-        <v>16218.33</v>
+        <v>41361.28</v>
+      </c>
+      <c r="D30" t="n">
+        <v>41360.04</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26248.2</v>
+        <v>16184.43</v>
       </c>
       <c r="C31" t="n">
-        <v>26182.15</v>
+        <v>16218.33</v>
+      </c>
+      <c r="D31" t="n">
+        <v>16188.9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>69990.33</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>26248.2</v>
+      </c>
+      <c r="C32" t="n">
+        <v>26182.15</v>
+      </c>
+      <c r="D32" t="n">
+        <v>15864.27</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>98147.53999999999</v>
-      </c>
-      <c r="C33" t="n">
-        <v>98071.52</v>
+        <v>69990.33</v>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="n">
+        <v>79868.35000000001</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58260.09</v>
+        <v>98147.53999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>58343.03</v>
+        <v>98071.52</v>
+      </c>
+      <c r="D34" t="n">
+        <v>98042.71000000001</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84985.53999999999</v>
+        <v>58260.09</v>
       </c>
       <c r="C35" t="n">
-        <v>84911.81</v>
+        <v>58343.03</v>
+      </c>
+      <c r="D35" t="n">
+        <v>63330.51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60333.63</v>
+        <v>84985.53999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>60354.15</v>
+        <v>84911.81</v>
+      </c>
+      <c r="D36" t="n">
+        <v>84917.67999999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120946.22</v>
+        <v>60333.63</v>
       </c>
       <c r="C37" t="n">
-        <v>1119813.64</v>
+        <v>60354.15</v>
+      </c>
+      <c r="D37" t="n">
+        <v>56713.04</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1181522.05</v>
+        <v>1120946.22</v>
       </c>
       <c r="C38" t="n">
-        <v>1182138.57</v>
+        <v>1119813.64</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1022894.4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>469846.65</v>
+        <v>1181522.05</v>
       </c>
       <c r="C39" t="n">
-        <v>470155.03</v>
+        <v>1182138.57</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1182423.26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37010.05</v>
+        <v>469846.65</v>
       </c>
       <c r="C40" t="n">
-        <v>37052.93</v>
+        <v>470155.03</v>
+      </c>
+      <c r="D40" t="n">
+        <v>469751.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>191166.19</v>
+        <v>37010.05</v>
       </c>
       <c r="C41" t="n">
-        <v>212230.28</v>
+        <v>37052.93</v>
+      </c>
+      <c r="D41" t="n">
+        <v>37023.59</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>191166.19</v>
+      </c>
+      <c r="C42" t="n">
+        <v>212230.28</v>
+      </c>
+      <c r="D42" t="n">
+        <v>195009.18</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B43" t="n">
         <v>7455481.48</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>7003599.23</v>
+      </c>
+      <c r="D43" t="n">
+        <v>7800367.38</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>120949.27</v>
       </c>
+      <c r="E2" t="n">
+        <v>129663.93</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -481,6 +489,9 @@
       <c r="D3" t="n">
         <v>238977.22</v>
       </c>
+      <c r="E3" t="n">
+        <v>253303.32</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -497,6 +508,9 @@
       <c r="D4" t="n">
         <v>31301.64</v>
       </c>
+      <c r="E4" t="n">
+        <v>31258</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -513,6 +527,9 @@
       <c r="D5" t="n">
         <v>17463.84</v>
       </c>
+      <c r="E5" t="n">
+        <v>26143.8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -529,6 +546,9 @@
       <c r="D6" t="n">
         <v>98213.47</v>
       </c>
+      <c r="E6" t="n">
+        <v>98233.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -545,6 +565,9 @@
       <c r="D7" t="n">
         <v>328978.28</v>
       </c>
+      <c r="E7" t="n">
+        <v>328639.26</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -561,6 +584,9 @@
       <c r="D8" t="n">
         <v>609991.74</v>
       </c>
+      <c r="E8" t="n">
+        <v>610019.79</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -577,6 +603,9 @@
       <c r="D9" t="n">
         <v>7287.83</v>
       </c>
+      <c r="E9" t="n">
+        <v>7294.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -593,6 +622,9 @@
       <c r="D10" t="n">
         <v>645145.4399999999</v>
       </c>
+      <c r="E10" t="n">
+        <v>645392.1899999999</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -609,6 +641,9 @@
       <c r="D11" t="n">
         <v>9501.219999999999</v>
       </c>
+      <c r="E11" t="n">
+        <v>9515.66</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -625,6 +660,9 @@
       <c r="D12" t="n">
         <v>20003.86</v>
       </c>
+      <c r="E12" t="n">
+        <v>20014.74</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -641,6 +679,9 @@
       <c r="D13" t="n">
         <v>249581.55</v>
       </c>
+      <c r="E13" t="n">
+        <v>249647.53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -657,6 +698,9 @@
       <c r="D14" t="n">
         <v>187957.48</v>
       </c>
+      <c r="E14" t="n">
+        <v>187915.67</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -672,6 +716,9 @@
       </c>
       <c r="D15" t="n">
         <v>728300.92</v>
+      </c>
+      <c r="E15" t="n">
+        <v>725938.38</v>
       </c>
     </row>
     <row r="16">
@@ -685,6 +732,9 @@
       <c r="D16" t="n">
         <v>268603.3</v>
       </c>
+      <c r="E16" t="n">
+        <v>273974.04</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -699,6 +749,9 @@
       <c r="D17" t="n">
         <v>10198.72</v>
       </c>
+      <c r="E17" t="n">
+        <v>10094.93</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -713,6 +766,9 @@
       <c r="D18" t="n">
         <v>42453.02</v>
       </c>
+      <c r="E18" t="n">
+        <v>42474.68</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -727,6 +783,9 @@
       <c r="D19" t="n">
         <v>272693.31</v>
       </c>
+      <c r="E19" t="n">
+        <v>267434.39</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -741,6 +800,9 @@
       <c r="D20" t="n">
         <v>24954.68</v>
       </c>
+      <c r="E20" t="n">
+        <v>24559.13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -755,6 +817,9 @@
       <c r="D21" t="n">
         <v>172373.97</v>
       </c>
+      <c r="E21" t="n">
+        <v>203121.54</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -771,6 +836,9 @@
       <c r="D22" t="n">
         <v>231924.27</v>
       </c>
+      <c r="E22" t="n">
+        <v>235363.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -787,6 +855,9 @@
       <c r="D23" t="n">
         <v>54226.45</v>
       </c>
+      <c r="E23" t="n">
+        <v>54261.86</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -803,6 +874,9 @@
       <c r="D24" t="n">
         <v>23198.2</v>
       </c>
+      <c r="E24" t="n">
+        <v>23184.78</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -819,6 +893,9 @@
       <c r="D25" t="n">
         <v>5360.83</v>
       </c>
+      <c r="E25" t="n">
+        <v>5360.13</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -835,6 +912,9 @@
       <c r="D26" t="n">
         <v>95166.96000000001</v>
       </c>
+      <c r="E26" t="n">
+        <v>95027.42</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -851,6 +931,9 @@
       <c r="D27" t="n">
         <v>91858.87</v>
       </c>
+      <c r="E27" t="n">
+        <v>91987.56</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -867,6 +950,9 @@
       <c r="D28" t="n">
         <v>41202.07</v>
       </c>
+      <c r="E28" t="n">
+        <v>43171.36</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -883,6 +969,9 @@
       <c r="D29" t="n">
         <v>4121.17</v>
       </c>
+      <c r="E29" t="n">
+        <v>4129.98</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -899,6 +988,9 @@
       <c r="D30" t="n">
         <v>41360.04</v>
       </c>
+      <c r="E30" t="n">
+        <v>46755.1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -915,6 +1007,9 @@
       <c r="D31" t="n">
         <v>16188.9</v>
       </c>
+      <c r="E31" t="n">
+        <v>16187.36</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -930,6 +1025,9 @@
       </c>
       <c r="D32" t="n">
         <v>15864.27</v>
+      </c>
+      <c r="E32" t="n">
+        <v>18706.77</v>
       </c>
     </row>
     <row r="33">
@@ -945,6 +1043,9 @@
       <c r="D33" t="n">
         <v>79868.35000000001</v>
       </c>
+      <c r="E33" t="n">
+        <v>79990.63</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -961,6 +1062,9 @@
       <c r="D34" t="n">
         <v>98042.71000000001</v>
       </c>
+      <c r="E34" t="n">
+        <v>98330.16</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -977,6 +1081,9 @@
       <c r="D35" t="n">
         <v>63330.51</v>
       </c>
+      <c r="E35" t="n">
+        <v>65338.67</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -993,6 +1100,9 @@
       <c r="D36" t="n">
         <v>84917.67999999999</v>
       </c>
+      <c r="E36" t="n">
+        <v>84821.64</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1009,6 +1119,9 @@
       <c r="D37" t="n">
         <v>56713.04</v>
       </c>
+      <c r="E37" t="n">
+        <v>55729.21</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1025,6 +1138,7 @@
       <c r="D38" t="n">
         <v>1022894.4</v>
       </c>
+      <c r="E38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1041,6 +1155,9 @@
       <c r="D39" t="n">
         <v>1182423.26</v>
       </c>
+      <c r="E39" t="n">
+        <v>1182350.01</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1057,6 +1174,9 @@
       <c r="D40" t="n">
         <v>469751.05</v>
       </c>
+      <c r="E40" t="n">
+        <v>470397.56</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1073,6 +1193,9 @@
       <c r="D41" t="n">
         <v>37023.59</v>
       </c>
+      <c r="E41" t="n">
+        <v>37034.58</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1089,6 +1212,9 @@
       <c r="D42" t="n">
         <v>195009.18</v>
       </c>
+      <c r="E42" t="n">
+        <v>175711.96</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1104,6 +1230,9 @@
       </c>
       <c r="D43" t="n">
         <v>7800367.38</v>
+      </c>
+      <c r="E43" t="n">
+        <v>6852766.56</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>129663.93</v>
       </c>
+      <c r="F2" t="n">
+        <v>138708.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -492,6 +500,9 @@
       <c r="E3" t="n">
         <v>253303.32</v>
       </c>
+      <c r="F3" t="n">
+        <v>253477.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -511,6 +522,9 @@
       <c r="E4" t="n">
         <v>31258</v>
       </c>
+      <c r="F4" t="n">
+        <v>31348.14</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -530,6 +544,9 @@
       <c r="E5" t="n">
         <v>26143.8</v>
       </c>
+      <c r="F5" t="n">
+        <v>26024.24</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -549,6 +566,9 @@
       <c r="E6" t="n">
         <v>98233.36</v>
       </c>
+      <c r="F6" t="n">
+        <v>98258.06</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -568,6 +588,9 @@
       <c r="E7" t="n">
         <v>328639.26</v>
       </c>
+      <c r="F7" t="n">
+        <v>328450.62</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -587,6 +610,9 @@
       <c r="E8" t="n">
         <v>610019.79</v>
       </c>
+      <c r="F8" t="n">
+        <v>610096.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -606,6 +632,9 @@
       <c r="E9" t="n">
         <v>7294.14</v>
       </c>
+      <c r="F9" t="n">
+        <v>7261.99</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -625,6 +654,9 @@
       <c r="E10" t="n">
         <v>645392.1899999999</v>
       </c>
+      <c r="F10" t="n">
+        <v>646627.1800000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -644,6 +676,9 @@
       <c r="E11" t="n">
         <v>9515.66</v>
       </c>
+      <c r="F11" t="n">
+        <v>9474.629999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -663,6 +698,9 @@
       <c r="E12" t="n">
         <v>20014.74</v>
       </c>
+      <c r="F12" t="n">
+        <v>20012.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -682,6 +720,9 @@
       <c r="E13" t="n">
         <v>249647.53</v>
       </c>
+      <c r="F13" t="n">
+        <v>249547.88</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -701,6 +742,9 @@
       <c r="E14" t="n">
         <v>187915.67</v>
       </c>
+      <c r="F14" t="n">
+        <v>187841.06</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -719,6 +763,9 @@
       </c>
       <c r="E15" t="n">
         <v>725938.38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>725563.4399999999</v>
       </c>
     </row>
     <row r="16">
@@ -735,6 +782,9 @@
       <c r="E16" t="n">
         <v>273974.04</v>
       </c>
+      <c r="F16" t="n">
+        <v>273821.92</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -752,6 +802,9 @@
       <c r="E17" t="n">
         <v>10094.93</v>
       </c>
+      <c r="F17" t="n">
+        <v>9992.700000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -769,6 +822,9 @@
       <c r="E18" t="n">
         <v>42474.68</v>
       </c>
+      <c r="F18" t="n">
+        <v>42498.57</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -786,6 +842,9 @@
       <c r="E19" t="n">
         <v>267434.39</v>
       </c>
+      <c r="F19" t="n">
+        <v>262468.55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -803,6 +862,9 @@
       <c r="E20" t="n">
         <v>24559.13</v>
       </c>
+      <c r="F20" t="n">
+        <v>24671.48</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -820,6 +882,9 @@
       <c r="E21" t="n">
         <v>203121.54</v>
       </c>
+      <c r="F21" t="n">
+        <v>203763.74</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -839,6 +904,9 @@
       <c r="E22" t="n">
         <v>235363.3</v>
       </c>
+      <c r="F22" t="n">
+        <v>236381.23</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -858,6 +926,9 @@
       <c r="E23" t="n">
         <v>54261.86</v>
       </c>
+      <c r="F23" t="n">
+        <v>54316.25</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -877,6 +948,9 @@
       <c r="E24" t="n">
         <v>23184.78</v>
       </c>
+      <c r="F24" t="n">
+        <v>23175.93</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -896,6 +970,9 @@
       <c r="E25" t="n">
         <v>5360.13</v>
       </c>
+      <c r="F25" t="n">
+        <v>5378.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -915,6 +992,9 @@
       <c r="E26" t="n">
         <v>95027.42</v>
       </c>
+      <c r="F26" t="n">
+        <v>85025.46000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -934,6 +1014,9 @@
       <c r="E27" t="n">
         <v>91987.56</v>
       </c>
+      <c r="F27" t="n">
+        <v>91895.23</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -953,6 +1036,9 @@
       <c r="E28" t="n">
         <v>43171.36</v>
       </c>
+      <c r="F28" t="n">
+        <v>42770.57</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -972,6 +1058,9 @@
       <c r="E29" t="n">
         <v>4129.98</v>
       </c>
+      <c r="F29" t="n">
+        <v>4116.1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -991,6 +1080,9 @@
       <c r="E30" t="n">
         <v>46755.1</v>
       </c>
+      <c r="F30" t="n">
+        <v>44936.9</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1010,6 +1102,9 @@
       <c r="E31" t="n">
         <v>16187.36</v>
       </c>
+      <c r="F31" t="n">
+        <v>16190.75</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1028,6 +1123,9 @@
       </c>
       <c r="E32" t="n">
         <v>18706.77</v>
+      </c>
+      <c r="F32" t="n">
+        <v>22087.75</v>
       </c>
     </row>
     <row r="33">
@@ -1046,6 +1144,9 @@
       <c r="E33" t="n">
         <v>79990.63</v>
       </c>
+      <c r="F33" t="n">
+        <v>80045.2</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1065,6 +1166,9 @@
       <c r="E34" t="n">
         <v>98330.16</v>
       </c>
+      <c r="F34" t="n">
+        <v>98138.17999999999</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1084,6 +1188,9 @@
       <c r="E35" t="n">
         <v>65338.67</v>
       </c>
+      <c r="F35" t="n">
+        <v>81271.64</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1103,6 +1210,9 @@
       <c r="E36" t="n">
         <v>84821.64</v>
       </c>
+      <c r="F36" t="n">
+        <v>84724.11</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1122,6 +1232,9 @@
       <c r="E37" t="n">
         <v>55729.21</v>
       </c>
+      <c r="F37" t="n">
+        <v>60122.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1139,6 +1252,7 @@
         <v>1022894.4</v>
       </c>
       <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1158,6 +1272,9 @@
       <c r="E39" t="n">
         <v>1182350.01</v>
       </c>
+      <c r="F39" t="n">
+        <v>1182094.09</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1177,6 +1294,9 @@
       <c r="E40" t="n">
         <v>470397.56</v>
       </c>
+      <c r="F40" t="n">
+        <v>469835.79</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1196,6 +1316,9 @@
       <c r="E41" t="n">
         <v>37034.58</v>
       </c>
+      <c r="F41" t="n">
+        <v>37008.79</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1215,6 +1338,9 @@
       <c r="E42" t="n">
         <v>175711.96</v>
       </c>
+      <c r="F42" t="n">
+        <v>176139.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1233,6 +1359,9 @@
       </c>
       <c r="E43" t="n">
         <v>6852766.56</v>
+      </c>
+      <c r="F43" t="n">
+        <v>6869425.04</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>138708.8</v>
       </c>
+      <c r="G2" t="n">
+        <v>138595.66</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -503,6 +511,9 @@
       <c r="F3" t="n">
         <v>253477.7</v>
       </c>
+      <c r="G3" t="n">
+        <v>253164.49</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -525,6 +536,9 @@
       <c r="F4" t="n">
         <v>31348.14</v>
       </c>
+      <c r="G4" t="n">
+        <v>31219.13</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -547,6 +561,9 @@
       <c r="F5" t="n">
         <v>26024.24</v>
       </c>
+      <c r="G5" t="n">
+        <v>26186.73</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -569,6 +586,9 @@
       <c r="F6" t="n">
         <v>98258.06</v>
       </c>
+      <c r="G6" t="n">
+        <v>98259.50999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -591,6 +611,9 @@
       <c r="F7" t="n">
         <v>328450.62</v>
       </c>
+      <c r="G7" t="n">
+        <v>328978.5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -613,6 +636,9 @@
       <c r="F8" t="n">
         <v>610096.85</v>
       </c>
+      <c r="G8" t="n">
+        <v>609931.85</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,6 +661,9 @@
       <c r="F9" t="n">
         <v>7261.99</v>
       </c>
+      <c r="G9" t="n">
+        <v>12891.35</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -657,6 +686,9 @@
       <c r="F10" t="n">
         <v>646627.1800000001</v>
       </c>
+      <c r="G10" t="n">
+        <v>645967.61</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -679,6 +711,9 @@
       <c r="F11" t="n">
         <v>9474.629999999999</v>
       </c>
+      <c r="G11" t="n">
+        <v>9467.25</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -701,6 +736,9 @@
       <c r="F12" t="n">
         <v>20012.6</v>
       </c>
+      <c r="G12" t="n">
+        <v>19991.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -723,6 +761,9 @@
       <c r="F13" t="n">
         <v>249547.88</v>
       </c>
+      <c r="G13" t="n">
+        <v>249324.46</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -745,6 +786,9 @@
       <c r="F14" t="n">
         <v>187841.06</v>
       </c>
+      <c r="G14" t="n">
+        <v>187860.33</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -766,6 +810,9 @@
       </c>
       <c r="F15" t="n">
         <v>725563.4399999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>726151.83</v>
       </c>
     </row>
     <row r="16">
@@ -785,6 +832,9 @@
       <c r="F16" t="n">
         <v>273821.92</v>
       </c>
+      <c r="G16" t="n">
+        <v>292560.64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -805,6 +855,9 @@
       <c r="F17" t="n">
         <v>9992.700000000001</v>
       </c>
+      <c r="G17" t="n">
+        <v>10001.41</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -825,6 +878,9 @@
       <c r="F18" t="n">
         <v>42498.57</v>
       </c>
+      <c r="G18" t="n">
+        <v>42411.72</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -845,6 +901,9 @@
       <c r="F19" t="n">
         <v>262468.55</v>
       </c>
+      <c r="G19" t="n">
+        <v>262605.11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -865,6 +924,9 @@
       <c r="F20" t="n">
         <v>24671.48</v>
       </c>
+      <c r="G20" t="n">
+        <v>24715.97</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -885,6 +947,9 @@
       <c r="F21" t="n">
         <v>203763.74</v>
       </c>
+      <c r="G21" t="n">
+        <v>205312.14</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -907,6 +972,9 @@
       <c r="F22" t="n">
         <v>236381.23</v>
       </c>
+      <c r="G22" t="n">
+        <v>246659.24</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -929,6 +997,9 @@
       <c r="F23" t="n">
         <v>54316.25</v>
       </c>
+      <c r="G23" t="n">
+        <v>54363.02</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -951,6 +1022,9 @@
       <c r="F24" t="n">
         <v>23175.93</v>
       </c>
+      <c r="G24" t="n">
+        <v>23152.54</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -973,6 +1047,9 @@
       <c r="F25" t="n">
         <v>5378.22</v>
       </c>
+      <c r="G25" t="n">
+        <v>5358.03</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -995,6 +1072,9 @@
       <c r="F26" t="n">
         <v>85025.46000000001</v>
       </c>
+      <c r="G26" t="n">
+        <v>79948.85000000001</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1017,6 +1097,9 @@
       <c r="F27" t="n">
         <v>91895.23</v>
       </c>
+      <c r="G27" t="n">
+        <v>92056.25999999999</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1039,6 +1122,9 @@
       <c r="F28" t="n">
         <v>42770.57</v>
       </c>
+      <c r="G28" t="n">
+        <v>42691.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1061,6 +1147,9 @@
       <c r="F29" t="n">
         <v>4116.1</v>
       </c>
+      <c r="G29" t="n">
+        <v>4122.01</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1083,6 +1172,9 @@
       <c r="F30" t="n">
         <v>44936.9</v>
       </c>
+      <c r="G30" t="n">
+        <v>44997.33</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1105,6 +1197,9 @@
       <c r="F31" t="n">
         <v>16190.75</v>
       </c>
+      <c r="G31" t="n">
+        <v>16241.51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1126,6 +1221,9 @@
       </c>
       <c r="F32" t="n">
         <v>22087.75</v>
+      </c>
+      <c r="G32" t="n">
+        <v>22123.74</v>
       </c>
     </row>
     <row r="33">
@@ -1147,6 +1245,9 @@
       <c r="F33" t="n">
         <v>80045.2</v>
       </c>
+      <c r="G33" t="n">
+        <v>85027.13</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1169,6 +1270,9 @@
       <c r="F34" t="n">
         <v>98138.17999999999</v>
       </c>
+      <c r="G34" t="n">
+        <v>98015.89</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1191,6 +1295,9 @@
       <c r="F35" t="n">
         <v>81271.64</v>
       </c>
+      <c r="G35" t="n">
+        <v>71384.10000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1213,6 +1320,9 @@
       <c r="F36" t="n">
         <v>84724.11</v>
       </c>
+      <c r="G36" t="n">
+        <v>68426.75999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1235,6 +1345,9 @@
       <c r="F37" t="n">
         <v>60122.7</v>
       </c>
+      <c r="G37" t="n">
+        <v>60943.16</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1253,6 +1366,7 @@
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1275,6 +1389,9 @@
       <c r="F39" t="n">
         <v>1182094.09</v>
       </c>
+      <c r="G39" t="n">
+        <v>1182805.94</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1297,6 +1414,9 @@
       <c r="F40" t="n">
         <v>469835.79</v>
       </c>
+      <c r="G40" t="n">
+        <v>470330.04</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1319,6 +1439,9 @@
       <c r="F41" t="n">
         <v>37008.79</v>
       </c>
+      <c r="G41" t="n">
+        <v>37074.61</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1341,6 +1464,9 @@
       <c r="F42" t="n">
         <v>176139.1</v>
       </c>
+      <c r="G42" t="n">
+        <v>176444.07</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1362,6 +1488,9 @@
       </c>
       <c r="F43" t="n">
         <v>6869425.04</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6881318.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>138595.66</v>
       </c>
+      <c r="H2" t="n">
+        <v>147325.09</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -514,6 +522,9 @@
       <c r="G3" t="n">
         <v>253164.49</v>
       </c>
+      <c r="H3" t="n">
+        <v>237593.18</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -539,6 +550,9 @@
       <c r="G4" t="n">
         <v>31219.13</v>
       </c>
+      <c r="H4" t="n">
+        <v>31259.28</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -564,6 +578,9 @@
       <c r="G5" t="n">
         <v>26186.73</v>
       </c>
+      <c r="H5" t="n">
+        <v>26112.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -589,6 +606,9 @@
       <c r="G6" t="n">
         <v>98259.50999999999</v>
       </c>
+      <c r="H6" t="n">
+        <v>98096.97</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -614,6 +634,9 @@
       <c r="G7" t="n">
         <v>328978.5</v>
       </c>
+      <c r="H7" t="n">
+        <v>328667</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -639,6 +662,9 @@
       <c r="G8" t="n">
         <v>609931.85</v>
       </c>
+      <c r="H8" t="n">
+        <v>610023.09</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -664,6 +690,9 @@
       <c r="G9" t="n">
         <v>12891.35</v>
       </c>
+      <c r="H9" t="n">
+        <v>12887.05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -689,6 +718,9 @@
       <c r="G10" t="n">
         <v>645967.61</v>
       </c>
+      <c r="H10" t="n">
+        <v>646210.8100000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -714,6 +746,9 @@
       <c r="G11" t="n">
         <v>9467.25</v>
       </c>
+      <c r="H11" t="n">
+        <v>9491.379999999999</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -739,6 +774,9 @@
       <c r="G12" t="n">
         <v>19991.8</v>
       </c>
+      <c r="H12" t="n">
+        <v>19988.13</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -764,6 +802,9 @@
       <c r="G13" t="n">
         <v>249324.46</v>
       </c>
+      <c r="H13" t="n">
+        <v>249598.68</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -789,6 +830,9 @@
       <c r="G14" t="n">
         <v>187860.33</v>
       </c>
+      <c r="H14" t="n">
+        <v>187854.45</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -813,6 +857,9 @@
       </c>
       <c r="G15" t="n">
         <v>726151.83</v>
+      </c>
+      <c r="H15" t="n">
+        <v>722991.84</v>
       </c>
     </row>
     <row r="16">
@@ -835,6 +882,9 @@
       <c r="G16" t="n">
         <v>292560.64</v>
       </c>
+      <c r="H16" t="n">
+        <v>292659.37</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -858,6 +908,9 @@
       <c r="G17" t="n">
         <v>10001.41</v>
       </c>
+      <c r="H17" t="n">
+        <v>9940.440000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -881,6 +934,9 @@
       <c r="G18" t="n">
         <v>42411.72</v>
       </c>
+      <c r="H18" t="n">
+        <v>42443.25</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -904,6 +960,9 @@
       <c r="G19" t="n">
         <v>262605.11</v>
       </c>
+      <c r="H19" t="n">
+        <v>262504.47</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -927,6 +986,9 @@
       <c r="G20" t="n">
         <v>24715.97</v>
       </c>
+      <c r="H20" t="n">
+        <v>25232.57</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -950,6 +1012,9 @@
       <c r="G21" t="n">
         <v>205312.14</v>
       </c>
+      <c r="H21" t="n">
+        <v>205315.59</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -975,6 +1040,9 @@
       <c r="G22" t="n">
         <v>246659.24</v>
       </c>
+      <c r="H22" t="n">
+        <v>246848.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1000,6 +1068,9 @@
       <c r="G23" t="n">
         <v>54363.02</v>
       </c>
+      <c r="H23" t="n">
+        <v>54273.79</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1025,6 +1096,9 @@
       <c r="G24" t="n">
         <v>23152.54</v>
       </c>
+      <c r="H24" t="n">
+        <v>23219.38</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1050,6 +1124,9 @@
       <c r="G25" t="n">
         <v>5358.03</v>
       </c>
+      <c r="H25" t="n">
+        <v>5376.63</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1075,6 +1152,9 @@
       <c r="G26" t="n">
         <v>79948.85000000001</v>
       </c>
+      <c r="H26" t="n">
+        <v>75157.03</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1100,6 +1180,9 @@
       <c r="G27" t="n">
         <v>92056.25999999999</v>
       </c>
+      <c r="H27" t="n">
+        <v>106978</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1125,6 +1208,9 @@
       <c r="G28" t="n">
         <v>42691.22</v>
       </c>
+      <c r="H28" t="n">
+        <v>50844.21</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1150,6 +1236,9 @@
       <c r="G29" t="n">
         <v>4122.01</v>
       </c>
+      <c r="H29" t="n">
+        <v>4126.83</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1175,6 +1264,9 @@
       <c r="G30" t="n">
         <v>44997.33</v>
       </c>
+      <c r="H30" t="n">
+        <v>45008.59</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1200,6 +1292,9 @@
       <c r="G31" t="n">
         <v>16241.51</v>
       </c>
+      <c r="H31" t="n">
+        <v>16177.78</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1224,6 +1319,9 @@
       </c>
       <c r="G32" t="n">
         <v>22123.74</v>
+      </c>
+      <c r="H32" t="n">
+        <v>22115.92</v>
       </c>
     </row>
     <row r="33">
@@ -1248,6 +1346,9 @@
       <c r="G33" t="n">
         <v>85027.13</v>
       </c>
+      <c r="H33" t="n">
+        <v>85000.55</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1273,6 +1374,9 @@
       <c r="G34" t="n">
         <v>98015.89</v>
       </c>
+      <c r="H34" t="n">
+        <v>97888.31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1298,6 +1402,9 @@
       <c r="G35" t="n">
         <v>71384.10000000001</v>
       </c>
+      <c r="H35" t="n">
+        <v>85286.48</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1323,6 +1430,9 @@
       <c r="G36" t="n">
         <v>68426.75999999999</v>
       </c>
+      <c r="H36" t="n">
+        <v>68726.00999999999</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1347,6 +1457,9 @@
       </c>
       <c r="G37" t="n">
         <v>60943.16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>61130.69</v>
       </c>
     </row>
     <row r="38">
@@ -1367,6 +1480,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1392,6 +1506,9 @@
       <c r="G39" t="n">
         <v>1182805.94</v>
       </c>
+      <c r="H39" t="n">
+        <v>1182778.25</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1417,6 +1534,9 @@
       <c r="G40" t="n">
         <v>470330.04</v>
       </c>
+      <c r="H40" t="n">
+        <v>469891.29</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1442,6 +1562,9 @@
       <c r="G41" t="n">
         <v>37074.61</v>
       </c>
+      <c r="H41" t="n">
+        <v>37101.31</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1467,6 +1590,9 @@
       <c r="G42" t="n">
         <v>176444.07</v>
       </c>
+      <c r="H42" t="n">
+        <v>177028.84</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1491,6 +1617,9 @@
       </c>
       <c r="G43" t="n">
         <v>6881318.87</v>
+      </c>
+      <c r="H43" t="n">
+        <v>6904124.71</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>147325.09</v>
       </c>
+      <c r="I2" t="n">
+        <v>111476.18</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -525,6 +533,9 @@
       <c r="H3" t="n">
         <v>237593.18</v>
       </c>
+      <c r="I3" t="n">
+        <v>237428.43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -553,6 +564,9 @@
       <c r="H4" t="n">
         <v>31259.28</v>
       </c>
+      <c r="I4" t="n">
+        <v>31293.93</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -581,6 +595,9 @@
       <c r="H5" t="n">
         <v>26112.32</v>
       </c>
+      <c r="I5" t="n">
+        <v>26132.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -609,6 +626,9 @@
       <c r="H6" t="n">
         <v>98096.97</v>
       </c>
+      <c r="I6" t="n">
+        <v>98125.27</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -637,6 +657,9 @@
       <c r="H7" t="n">
         <v>328667</v>
       </c>
+      <c r="I7" t="n">
+        <v>328288.18</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -665,6 +688,9 @@
       <c r="H8" t="n">
         <v>610023.09</v>
       </c>
+      <c r="I8" t="n">
+        <v>609838.36</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -693,6 +719,9 @@
       <c r="H9" t="n">
         <v>12887.05</v>
       </c>
+      <c r="I9" t="n">
+        <v>12862.96</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -721,6 +750,9 @@
       <c r="H10" t="n">
         <v>646210.8100000001</v>
       </c>
+      <c r="I10" t="n">
+        <v>646379.33</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -749,6 +781,9 @@
       <c r="H11" t="n">
         <v>9491.379999999999</v>
       </c>
+      <c r="I11" t="n">
+        <v>9479.07</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -777,6 +812,9 @@
       <c r="H12" t="n">
         <v>19988.13</v>
       </c>
+      <c r="I12" t="n">
+        <v>20013.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -805,6 +843,9 @@
       <c r="H13" t="n">
         <v>249598.68</v>
       </c>
+      <c r="I13" t="n">
+        <v>249447.38</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -833,6 +874,9 @@
       <c r="H14" t="n">
         <v>187854.45</v>
       </c>
+      <c r="I14" t="n">
+        <v>187776.1</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -860,6 +904,9 @@
       </c>
       <c r="H15" t="n">
         <v>722991.84</v>
+      </c>
+      <c r="I15" t="n">
+        <v>712931.05</v>
       </c>
     </row>
     <row r="16">
@@ -885,6 +932,9 @@
       <c r="H16" t="n">
         <v>292659.37</v>
       </c>
+      <c r="I16" t="n">
+        <v>292512.81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -911,6 +961,9 @@
       <c r="H17" t="n">
         <v>9940.440000000001</v>
       </c>
+      <c r="I17" t="n">
+        <v>10018.79</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -937,6 +990,9 @@
       <c r="H18" t="n">
         <v>42443.25</v>
       </c>
+      <c r="I18" t="n">
+        <v>42528.97</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -963,6 +1019,9 @@
       <c r="H19" t="n">
         <v>262504.47</v>
       </c>
+      <c r="I19" t="n">
+        <v>262471.08</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -989,6 +1048,9 @@
       <c r="H20" t="n">
         <v>25232.57</v>
       </c>
+      <c r="I20" t="n">
+        <v>25374.64</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1015,6 +1077,9 @@
       <c r="H21" t="n">
         <v>205315.59</v>
       </c>
+      <c r="I21" t="n">
+        <v>203000.45</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1043,6 +1108,9 @@
       <c r="H22" t="n">
         <v>246848.7</v>
       </c>
+      <c r="I22" t="n">
+        <v>246786.54</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1071,6 +1139,9 @@
       <c r="H23" t="n">
         <v>54273.79</v>
       </c>
+      <c r="I23" t="n">
+        <v>54236.53</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1099,6 +1170,9 @@
       <c r="H24" t="n">
         <v>23219.38</v>
       </c>
+      <c r="I24" t="n">
+        <v>23180.24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1127,6 +1201,9 @@
       <c r="H25" t="n">
         <v>5376.63</v>
       </c>
+      <c r="I25" t="n">
+        <v>5365.62</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1155,6 +1232,9 @@
       <c r="H26" t="n">
         <v>75157.03</v>
       </c>
+      <c r="I26" t="n">
+        <v>65180.74</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1183,6 +1263,9 @@
       <c r="H27" t="n">
         <v>106978</v>
       </c>
+      <c r="I27" t="n">
+        <v>107111.79</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1211,6 +1294,9 @@
       <c r="H28" t="n">
         <v>50844.21</v>
       </c>
+      <c r="I28" t="n">
+        <v>50819.16</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1239,6 +1325,9 @@
       <c r="H29" t="n">
         <v>4126.83</v>
       </c>
+      <c r="I29" t="n">
+        <v>4126.4</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1267,6 +1356,9 @@
       <c r="H30" t="n">
         <v>45008.59</v>
       </c>
+      <c r="I30" t="n">
+        <v>44948.81</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1295,6 +1387,9 @@
       <c r="H31" t="n">
         <v>16177.78</v>
       </c>
+      <c r="I31" t="n">
+        <v>16218.46</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1322,6 +1417,9 @@
       </c>
       <c r="H32" t="n">
         <v>22115.92</v>
+      </c>
+      <c r="I32" t="n">
+        <v>22087.19</v>
       </c>
     </row>
     <row r="33">
@@ -1349,6 +1447,9 @@
       <c r="H33" t="n">
         <v>85000.55</v>
       </c>
+      <c r="I33" t="n">
+        <v>84941.17</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1377,6 +1478,9 @@
       <c r="H34" t="n">
         <v>97888.31</v>
       </c>
+      <c r="I34" t="n">
+        <v>98102.06</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1405,6 +1509,9 @@
       <c r="H35" t="n">
         <v>85286.48</v>
       </c>
+      <c r="I35" t="n">
+        <v>70244.48</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1433,6 +1540,9 @@
       <c r="H36" t="n">
         <v>68726.00999999999</v>
       </c>
+      <c r="I36" t="n">
+        <v>68650.21000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1460,6 +1570,9 @@
       </c>
       <c r="H37" t="n">
         <v>61130.69</v>
+      </c>
+      <c r="I37" t="n">
+        <v>61108.72</v>
       </c>
     </row>
     <row r="38">
@@ -1481,6 +1594,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1509,6 +1623,9 @@
       <c r="H39" t="n">
         <v>1182778.25</v>
       </c>
+      <c r="I39" t="n">
+        <v>1216011.05</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1537,6 +1654,9 @@
       <c r="H40" t="n">
         <v>469891.29</v>
       </c>
+      <c r="I40" t="n">
+        <v>469619.69</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1565,6 +1685,9 @@
       <c r="H41" t="n">
         <v>37101.31</v>
       </c>
+      <c r="I41" t="n">
+        <v>37058.65</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1593,6 +1716,9 @@
       <c r="H42" t="n">
         <v>177028.84</v>
       </c>
+      <c r="I42" t="n">
+        <v>175978.87</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1620,6 +1746,9 @@
       </c>
       <c r="H43" t="n">
         <v>6904124.71</v>
+      </c>
+      <c r="I43" t="n">
+        <v>6863175.75</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>111476.18</v>
       </c>
+      <c r="J2" t="n">
+        <v>103534.56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>237428.43</v>
       </c>
+      <c r="J3" t="n">
+        <v>237561.09</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -567,6 +578,9 @@
       <c r="I4" t="n">
         <v>31293.93</v>
       </c>
+      <c r="J4" t="n">
+        <v>31377.84</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -598,6 +612,9 @@
       <c r="I5" t="n">
         <v>26132.01</v>
       </c>
+      <c r="J5" t="n">
+        <v>26148.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -629,6 +646,9 @@
       <c r="I6" t="n">
         <v>98125.27</v>
       </c>
+      <c r="J6" t="n">
+        <v>98226.82000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -660,6 +680,9 @@
       <c r="I7" t="n">
         <v>328288.18</v>
       </c>
+      <c r="J7" t="n">
+        <v>328356.47</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -691,6 +714,9 @@
       <c r="I8" t="n">
         <v>609838.36</v>
       </c>
+      <c r="J8" t="n">
+        <v>609747.87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -722,6 +748,9 @@
       <c r="I9" t="n">
         <v>12862.96</v>
       </c>
+      <c r="J9" t="n">
+        <v>12867.03</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -753,6 +782,9 @@
       <c r="I10" t="n">
         <v>646379.33</v>
       </c>
+      <c r="J10" t="n">
+        <v>646297.29</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -784,6 +816,9 @@
       <c r="I11" t="n">
         <v>9479.07</v>
       </c>
+      <c r="J11" t="n">
+        <v>9458.91</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -815,6 +850,9 @@
       <c r="I12" t="n">
         <v>20013.25</v>
       </c>
+      <c r="J12" t="n">
+        <v>19986.79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -846,6 +884,9 @@
       <c r="I13" t="n">
         <v>249447.38</v>
       </c>
+      <c r="J13" t="n">
+        <v>249585.11</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -877,6 +918,9 @@
       <c r="I14" t="n">
         <v>187776.1</v>
       </c>
+      <c r="J14" t="n">
+        <v>187931.61</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -907,6 +951,9 @@
       </c>
       <c r="I15" t="n">
         <v>712931.05</v>
+      </c>
+      <c r="J15" t="n">
+        <v>708925.72</v>
       </c>
     </row>
     <row r="16">
@@ -935,6 +982,9 @@
       <c r="I16" t="n">
         <v>292512.81</v>
       </c>
+      <c r="J16" t="n">
+        <v>276136.96</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -964,6 +1014,9 @@
       <c r="I17" t="n">
         <v>10018.79</v>
       </c>
+      <c r="J17" t="n">
+        <v>9871.870000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -993,6 +1046,9 @@
       <c r="I18" t="n">
         <v>42528.97</v>
       </c>
+      <c r="J18" t="n">
+        <v>42428.78</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1022,6 +1078,9 @@
       <c r="I19" t="n">
         <v>262471.08</v>
       </c>
+      <c r="J19" t="n">
+        <v>262214.45</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1051,6 +1110,9 @@
       <c r="I20" t="n">
         <v>25374.64</v>
       </c>
+      <c r="J20" t="n">
+        <v>24607.69</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1080,6 +1142,9 @@
       <c r="I21" t="n">
         <v>203000.45</v>
       </c>
+      <c r="J21" t="n">
+        <v>203177.37</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1111,6 +1176,9 @@
       <c r="I22" t="n">
         <v>246786.54</v>
       </c>
+      <c r="J22" t="n">
+        <v>266989.25</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1142,6 +1210,9 @@
       <c r="I23" t="n">
         <v>54236.53</v>
       </c>
+      <c r="J23" t="n">
+        <v>54352.14</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1173,6 +1244,9 @@
       <c r="I24" t="n">
         <v>23180.24</v>
       </c>
+      <c r="J24" t="n">
+        <v>23209.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1204,6 +1278,9 @@
       <c r="I25" t="n">
         <v>5365.62</v>
       </c>
+      <c r="J25" t="n">
+        <v>5377.83</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1235,6 +1312,9 @@
       <c r="I26" t="n">
         <v>65180.74</v>
       </c>
+      <c r="J26" t="n">
+        <v>65142.51</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1266,6 +1346,9 @@
       <c r="I27" t="n">
         <v>107111.79</v>
       </c>
+      <c r="J27" t="n">
+        <v>107022.83</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1297,6 +1380,9 @@
       <c r="I28" t="n">
         <v>50819.16</v>
       </c>
+      <c r="J28" t="n">
+        <v>50822.04</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1328,6 +1414,9 @@
       <c r="I29" t="n">
         <v>4126.4</v>
       </c>
+      <c r="J29" t="n">
+        <v>4127.96</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1359,6 +1448,9 @@
       <c r="I30" t="n">
         <v>44948.81</v>
       </c>
+      <c r="J30" t="n">
+        <v>45035.13</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1390,6 +1482,9 @@
       <c r="I31" t="n">
         <v>16218.46</v>
       </c>
+      <c r="J31" t="n">
+        <v>16242.61</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1420,6 +1515,9 @@
       </c>
       <c r="I32" t="n">
         <v>22087.19</v>
+      </c>
+      <c r="J32" t="n">
+        <v>22103.25</v>
       </c>
     </row>
     <row r="33">
@@ -1450,6 +1548,9 @@
       <c r="I33" t="n">
         <v>84941.17</v>
       </c>
+      <c r="J33" t="n">
+        <v>85047.63</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1481,6 +1582,9 @@
       <c r="I34" t="n">
         <v>98102.06</v>
       </c>
+      <c r="J34" t="n">
+        <v>97994.44</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1512,6 +1616,9 @@
       <c r="I35" t="n">
         <v>70244.48</v>
       </c>
+      <c r="J35" t="n">
+        <v>65731.89</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1543,6 +1650,9 @@
       <c r="I36" t="n">
         <v>68650.21000000001</v>
       </c>
+      <c r="J36" t="n">
+        <v>68687.31</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1573,6 +1683,9 @@
       </c>
       <c r="I37" t="n">
         <v>61108.72</v>
+      </c>
+      <c r="J37" t="n">
+        <v>61069.43</v>
       </c>
     </row>
     <row r="38">
@@ -1595,6 +1708,7 @@
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1626,6 +1740,9 @@
       <c r="I39" t="n">
         <v>1216011.05</v>
       </c>
+      <c r="J39" t="n">
+        <v>1217285.82</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1657,6 +1774,9 @@
       <c r="I40" t="n">
         <v>469619.69</v>
       </c>
+      <c r="J40" t="n">
+        <v>470380.13</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1688,6 +1808,9 @@
       <c r="I41" t="n">
         <v>37058.65</v>
       </c>
+      <c r="J41" t="n">
+        <v>37102.09</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1719,6 +1842,9 @@
       <c r="I42" t="n">
         <v>175978.87</v>
       </c>
+      <c r="J42" t="n">
+        <v>175696.59</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1749,6 +1875,9 @@
       </c>
       <c r="I43" t="n">
         <v>6863175.75</v>
+      </c>
+      <c r="J43" t="n">
+        <v>6852166.92</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>103534.56</v>
       </c>
+      <c r="K2" t="n">
+        <v>95373.24000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>237561.09</v>
       </c>
+      <c r="K3" t="n">
+        <v>245926.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -581,6 +592,9 @@
       <c r="J4" t="n">
         <v>31377.84</v>
       </c>
+      <c r="K4" t="n">
+        <v>31276.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -615,6 +629,9 @@
       <c r="J5" t="n">
         <v>26148.7</v>
       </c>
+      <c r="K5" t="n">
+        <v>26077.08</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -649,6 +666,9 @@
       <c r="J6" t="n">
         <v>98226.82000000001</v>
       </c>
+      <c r="K6" t="n">
+        <v>98385.07000000001</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -683,6 +703,9 @@
       <c r="J7" t="n">
         <v>328356.47</v>
       </c>
+      <c r="K7" t="n">
+        <v>328258.84</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -717,6 +740,9 @@
       <c r="J8" t="n">
         <v>609747.87</v>
       </c>
+      <c r="K8" t="n">
+        <v>610071.08</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -751,6 +777,9 @@
       <c r="J9" t="n">
         <v>12867.03</v>
       </c>
+      <c r="K9" t="n">
+        <v>12881.53</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -785,6 +814,9 @@
       <c r="J10" t="n">
         <v>646297.29</v>
       </c>
+      <c r="K10" t="n">
+        <v>645239.6800000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -819,6 +851,9 @@
       <c r="J11" t="n">
         <v>9458.91</v>
       </c>
+      <c r="K11" t="n">
+        <v>1124.04</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -853,6 +888,9 @@
       <c r="J12" t="n">
         <v>19986.79</v>
       </c>
+      <c r="K12" t="n">
+        <v>20013.86</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -887,6 +925,9 @@
       <c r="J13" t="n">
         <v>249585.11</v>
       </c>
+      <c r="K13" t="n">
+        <v>249279.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -921,6 +962,9 @@
       <c r="J14" t="n">
         <v>187931.61</v>
       </c>
+      <c r="K14" t="n">
+        <v>187777.77</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -954,6 +998,9 @@
       </c>
       <c r="J15" t="n">
         <v>708925.72</v>
+      </c>
+      <c r="K15" t="n">
+        <v>702841.89</v>
       </c>
     </row>
     <row r="16">
@@ -985,6 +1032,9 @@
       <c r="J16" t="n">
         <v>276136.96</v>
       </c>
+      <c r="K16" t="n">
+        <v>276084.16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1017,6 +1067,9 @@
       <c r="J17" t="n">
         <v>9871.870000000001</v>
       </c>
+      <c r="K17" t="n">
+        <v>9791.950000000001</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1049,6 +1102,9 @@
       <c r="J18" t="n">
         <v>42428.78</v>
       </c>
+      <c r="K18" t="n">
+        <v>42406.12</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1081,6 +1137,9 @@
       <c r="J19" t="n">
         <v>262214.45</v>
       </c>
+      <c r="K19" t="n">
+        <v>262438.83</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1113,6 +1172,9 @@
       <c r="J20" t="n">
         <v>24607.69</v>
       </c>
+      <c r="K20" t="n">
+        <v>25170.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1145,6 +1207,9 @@
       <c r="J21" t="n">
         <v>203177.37</v>
       </c>
+      <c r="K21" t="n">
+        <v>203068.91</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1179,6 +1244,9 @@
       <c r="J22" t="n">
         <v>266989.25</v>
       </c>
+      <c r="K22" t="n">
+        <v>266530.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1213,6 +1281,9 @@
       <c r="J23" t="n">
         <v>54352.14</v>
       </c>
+      <c r="K23" t="n">
+        <v>54258.32</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1247,6 +1318,9 @@
       <c r="J24" t="n">
         <v>23209.7</v>
       </c>
+      <c r="K24" t="n">
+        <v>23152.03</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1281,6 +1355,9 @@
       <c r="J25" t="n">
         <v>5377.83</v>
       </c>
+      <c r="K25" t="n">
+        <v>5366.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1315,6 +1392,9 @@
       <c r="J26" t="n">
         <v>65142.51</v>
       </c>
+      <c r="K26" t="n">
+        <v>62978.75</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1349,6 +1429,9 @@
       <c r="J27" t="n">
         <v>107022.83</v>
       </c>
+      <c r="K27" t="n">
+        <v>106931.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1383,6 +1466,9 @@
       <c r="J28" t="n">
         <v>50822.04</v>
       </c>
+      <c r="K28" t="n">
+        <v>50800.44</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1417,6 +1503,9 @@
       <c r="J29" t="n">
         <v>4127.96</v>
       </c>
+      <c r="K29" t="n">
+        <v>4131.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1451,6 +1540,9 @@
       <c r="J30" t="n">
         <v>45035.13</v>
       </c>
+      <c r="K30" t="n">
+        <v>41998.55</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1485,6 +1577,9 @@
       <c r="J31" t="n">
         <v>16242.61</v>
       </c>
+      <c r="K31" t="n">
+        <v>16173.44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1518,6 +1613,9 @@
       </c>
       <c r="J32" t="n">
         <v>22103.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>22068.23</v>
       </c>
     </row>
     <row r="33">
@@ -1551,6 +1649,9 @@
       <c r="J33" t="n">
         <v>85047.63</v>
       </c>
+      <c r="K33" t="n">
+        <v>84955.78999999999</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1585,6 +1686,9 @@
       <c r="J34" t="n">
         <v>97994.44</v>
       </c>
+      <c r="K34" t="n">
+        <v>98082.98</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1619,6 +1723,9 @@
       <c r="J35" t="n">
         <v>65731.89</v>
       </c>
+      <c r="K35" t="n">
+        <v>65799.03999999999</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1653,6 +1760,9 @@
       <c r="J36" t="n">
         <v>68687.31</v>
       </c>
+      <c r="K36" t="n">
+        <v>68629.10000000001</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1686,6 +1796,9 @@
       </c>
       <c r="J37" t="n">
         <v>61069.43</v>
+      </c>
+      <c r="K37" t="n">
+        <v>61139.71</v>
       </c>
     </row>
     <row r="38">
@@ -1709,6 +1822,7 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1743,6 +1857,9 @@
       <c r="J39" t="n">
         <v>1217285.82</v>
       </c>
+      <c r="K39" t="n">
+        <v>1217395.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1777,6 +1894,9 @@
       <c r="J40" t="n">
         <v>470380.13</v>
       </c>
+      <c r="K40" t="n">
+        <v>469922.78</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1811,6 +1931,9 @@
       <c r="J41" t="n">
         <v>37102.09</v>
       </c>
+      <c r="K41" t="n">
+        <v>37006.32</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1845,6 +1968,9 @@
       <c r="J42" t="n">
         <v>175696.59</v>
       </c>
+      <c r="K42" t="n">
+        <v>175148.91</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1878,6 +2004,9 @@
       </c>
       <c r="J43" t="n">
         <v>6852166.92</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6830807.33</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>95373.24000000001</v>
       </c>
+      <c r="L2" t="n">
+        <v>95481.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>245926.4</v>
       </c>
+      <c r="L3" t="n">
+        <v>246503.83</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -595,6 +606,9 @@
       <c r="K4" t="n">
         <v>31276.89</v>
       </c>
+      <c r="L4" t="n">
+        <v>31287.89</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -632,6 +646,9 @@
       <c r="K5" t="n">
         <v>26077.08</v>
       </c>
+      <c r="L5" t="n">
+        <v>26134.81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -669,6 +686,9 @@
       <c r="K6" t="n">
         <v>98385.07000000001</v>
       </c>
+      <c r="L6" t="n">
+        <v>98192.17</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -706,6 +726,9 @@
       <c r="K7" t="n">
         <v>328258.84</v>
       </c>
+      <c r="L7" t="n">
+        <v>328495.53</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -743,6 +766,9 @@
       <c r="K8" t="n">
         <v>610071.08</v>
       </c>
+      <c r="L8" t="n">
+        <v>609740.17</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -780,6 +806,9 @@
       <c r="K9" t="n">
         <v>12881.53</v>
       </c>
+      <c r="L9" t="n">
+        <v>12853.47</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -817,6 +846,9 @@
       <c r="K10" t="n">
         <v>645239.6800000001</v>
       </c>
+      <c r="L10" t="n">
+        <v>644836.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -854,6 +886,9 @@
       <c r="K11" t="n">
         <v>1124.04</v>
       </c>
+      <c r="L11" t="n">
+        <v>1122.98</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -891,6 +926,9 @@
       <c r="K12" t="n">
         <v>20013.86</v>
       </c>
+      <c r="L12" t="n">
+        <v>20007.12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -928,6 +966,9 @@
       <c r="K13" t="n">
         <v>249279.03</v>
       </c>
+      <c r="L13" t="n">
+        <v>235710.03</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -965,6 +1006,9 @@
       <c r="K14" t="n">
         <v>187777.77</v>
       </c>
+      <c r="L14" t="n">
+        <v>187933.29</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1001,6 +1045,9 @@
       </c>
       <c r="K15" t="n">
         <v>702841.89</v>
+      </c>
+      <c r="L15" t="n">
+        <v>700336.7</v>
       </c>
     </row>
     <row r="16">
@@ -1035,6 +1082,9 @@
       <c r="K16" t="n">
         <v>276084.16</v>
       </c>
+      <c r="L16" t="n">
+        <v>276044.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1070,6 +1120,9 @@
       <c r="K17" t="n">
         <v>9791.950000000001</v>
       </c>
+      <c r="L17" t="n">
+        <v>10121.12</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1105,6 +1158,9 @@
       <c r="K18" t="n">
         <v>42406.12</v>
       </c>
+      <c r="L18" t="n">
+        <v>42533.92</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1140,6 +1196,9 @@
       <c r="K19" t="n">
         <v>262438.83</v>
       </c>
+      <c r="L19" t="n">
+        <v>262337.95</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1175,6 +1234,9 @@
       <c r="K20" t="n">
         <v>25170.31</v>
       </c>
+      <c r="L20" t="n">
+        <v>24583.31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1210,6 +1272,9 @@
       <c r="K21" t="n">
         <v>203068.91</v>
       </c>
+      <c r="L21" t="n">
+        <v>185622.56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1247,6 +1312,9 @@
       <c r="K22" t="n">
         <v>266530.6</v>
       </c>
+      <c r="L22" t="n">
+        <v>256925.9</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1284,6 +1352,9 @@
       <c r="K23" t="n">
         <v>54258.32</v>
       </c>
+      <c r="L23" t="n">
+        <v>54238.21</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1321,6 +1392,9 @@
       <c r="K24" t="n">
         <v>23152.03</v>
       </c>
+      <c r="L24" t="n">
+        <v>23163.49</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1358,6 +1432,9 @@
       <c r="K25" t="n">
         <v>5366.6</v>
       </c>
+      <c r="L25" t="n">
+        <v>5380.57</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1395,6 +1472,9 @@
       <c r="K26" t="n">
         <v>62978.75</v>
       </c>
+      <c r="L26" t="n">
+        <v>58159.18</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1432,6 +1512,9 @@
       <c r="K27" t="n">
         <v>106931.17</v>
       </c>
+      <c r="L27" t="n">
+        <v>102082.11</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1469,6 +1552,9 @@
       <c r="K28" t="n">
         <v>50800.44</v>
       </c>
+      <c r="L28" t="n">
+        <v>50457.23</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1506,6 +1592,9 @@
       <c r="K29" t="n">
         <v>4131.2</v>
       </c>
+      <c r="L29" t="n">
+        <v>4122.88</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1543,6 +1632,9 @@
       <c r="K30" t="n">
         <v>41998.55</v>
       </c>
+      <c r="L30" t="n">
+        <v>40286.43</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1580,6 +1672,9 @@
       <c r="K31" t="n">
         <v>16173.44</v>
       </c>
+      <c r="L31" t="n">
+        <v>16240.68</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1616,6 +1711,9 @@
       </c>
       <c r="K32" t="n">
         <v>22068.23</v>
+      </c>
+      <c r="L32" t="n">
+        <v>22100.36</v>
       </c>
     </row>
     <row r="33">
@@ -1652,6 +1750,9 @@
       <c r="K33" t="n">
         <v>84955.78999999999</v>
       </c>
+      <c r="L33" t="n">
+        <v>84886.72</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1689,6 +1790,9 @@
       <c r="K34" t="n">
         <v>98082.98</v>
       </c>
+      <c r="L34" t="n">
+        <v>98037.31</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1726,6 +1830,9 @@
       <c r="K35" t="n">
         <v>65799.03999999999</v>
       </c>
+      <c r="L35" t="n">
+        <v>65858.35000000001</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1763,6 +1870,9 @@
       <c r="K36" t="n">
         <v>68629.10000000001</v>
       </c>
+      <c r="L36" t="n">
+        <v>68660.81</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1799,6 +1909,9 @@
       </c>
       <c r="K37" t="n">
         <v>61139.71</v>
+      </c>
+      <c r="L37" t="n">
+        <v>61114.75</v>
       </c>
     </row>
     <row r="38">
@@ -1823,6 +1936,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1860,6 +1974,9 @@
       <c r="K39" t="n">
         <v>1217395.6</v>
       </c>
+      <c r="L39" t="n">
+        <v>1217031.67</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1897,6 +2014,9 @@
       <c r="K40" t="n">
         <v>469922.78</v>
       </c>
+      <c r="L40" t="n">
+        <v>469799.12</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1934,6 +2054,9 @@
       <c r="K41" t="n">
         <v>37006.32</v>
       </c>
+      <c r="L41" t="n">
+        <v>37017.81</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1971,6 +2094,9 @@
       <c r="K42" t="n">
         <v>175148.91</v>
       </c>
+      <c r="L42" t="n">
+        <v>173729.3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2007,6 +2133,9 @@
       </c>
       <c r="K43" t="n">
         <v>6830807.33</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6775442.64</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BBAR.xlsx
+++ b/backend/src/excel_handler/files/BBAR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>95481.87</v>
       </c>
+      <c r="M2" t="n">
+        <v>95306.99000000001</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>246503.83</v>
       </c>
+      <c r="M3" t="n">
+        <v>267713.53</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -609,6 +620,9 @@
       <c r="L4" t="n">
         <v>31287.89</v>
       </c>
+      <c r="M4" t="n">
+        <v>31337.46</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -649,6 +663,9 @@
       <c r="L5" t="n">
         <v>26134.81</v>
       </c>
+      <c r="M5" t="n">
+        <v>26044.79</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -689,6 +706,9 @@
       <c r="L6" t="n">
         <v>98192.17</v>
       </c>
+      <c r="M6" t="n">
+        <v>98139.36</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -729,6 +749,9 @@
       <c r="L7" t="n">
         <v>328495.53</v>
       </c>
+      <c r="M7" t="n">
+        <v>328317.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -769,6 +792,9 @@
       <c r="L8" t="n">
         <v>609740.17</v>
       </c>
+      <c r="M8" t="n">
+        <v>609769.3199999999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -809,6 +835,9 @@
       <c r="L9" t="n">
         <v>12853.47</v>
       </c>
+      <c r="M9" t="n">
+        <v>12893.38</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -849,6 +878,9 @@
       <c r="L10" t="n">
         <v>644836.04</v>
       </c>
+      <c r="M10" t="n">
+        <v>647168.17</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -889,6 +921,9 @@
       <c r="L11" t="n">
         <v>1122.98</v>
       </c>
+      <c r="M11" t="n">
+        <v>1123.62</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -929,6 +964,9 @@
       <c r="L12" t="n">
         <v>20007.12</v>
       </c>
+      <c r="M12" t="n">
+        <v>20009.25</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -969,6 +1007,9 @@
       <c r="L13" t="n">
         <v>235710.03</v>
       </c>
+      <c r="M13" t="n">
+        <v>187231.71</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1009,6 +1050,9 @@
       <c r="L14" t="n">
         <v>187933.29</v>
       </c>
+      <c r="M14" t="n">
+        <v>187830.66</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1048,6 +1092,9 @@
       </c>
       <c r="L15" t="n">
         <v>700336.7</v>
+      </c>
+      <c r="M15" t="n">
+        <v>689854.33</v>
       </c>
     </row>
     <row r="16">
@@ -1085,6 +1132,9 @@
       <c r="L16" t="n">
         <v>276044.3</v>
       </c>
+      <c r="M16" t="n">
+        <v>275457.59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1123,6 +1173,9 @@
       <c r="L17" t="n">
         <v>10121.12</v>
       </c>
+      <c r="M17" t="n">
+        <v>9929.1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1161,6 +1214,9 @@
       <c r="L18" t="n">
         <v>42533.92</v>
       </c>
+      <c r="M18" t="n">
+        <v>42488.67</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1199,6 +1255,9 @@
       <c r="L19" t="n">
         <v>262337.95</v>
       </c>
+      <c r="M19" t="n">
+        <v>262880.39</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1237,6 +1296,9 @@
       <c r="L20" t="n">
         <v>24583.31</v>
       </c>
+      <c r="M20" t="n">
+        <v>24999.59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1275,6 +1337,9 @@
       <c r="L21" t="n">
         <v>185622.56</v>
       </c>
+      <c r="M21" t="n">
+        <v>181670.27</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1315,6 +1380,9 @@
       <c r="L22" t="n">
         <v>256925.9</v>
       </c>
+      <c r="M22" t="n">
+        <v>256446.46</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1355,6 +1423,9 @@
       <c r="L23" t="n">
         <v>54238.21</v>
       </c>
+      <c r="M23" t="n">
+        <v>54331.66</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1395,6 +1466,9 @@
       <c r="L24" t="n">
         <v>23163.49</v>
       </c>
+      <c r="M24" t="n">
+        <v>23198.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1435,6 +1509,9 @@
       <c r="L25" t="n">
         <v>5380.57</v>
       </c>
+      <c r="M25" t="n">
+        <v>5375.99</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1475,6 +1552,9 @@
       <c r="L26" t="n">
         <v>58159.18</v>
       </c>
+      <c r="M26" t="n">
+        <v>58100.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1515,6 +1595,9 @@
       <c r="L27" t="n">
         <v>102082.11</v>
       </c>
+      <c r="M27" t="n">
+        <v>101935.18</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1555,6 +1638,9 @@
       <c r="L28" t="n">
         <v>50457.23</v>
       </c>
+      <c r="M28" t="n">
+        <v>44484.74</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1595,6 +1681,9 @@
       <c r="L29" t="n">
         <v>4122.88</v>
       </c>
+      <c r="M29" t="n">
+        <v>4125.76</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1635,6 +1724,9 @@
       <c r="L30" t="n">
         <v>40286.43</v>
       </c>
+      <c r="M30" t="n">
+        <v>40156.69</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1675,6 +1767,9 @@
       <c r="L31" t="n">
         <v>16240.68</v>
       </c>
+      <c r="M31" t="n">
+        <v>16254.08</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1714,6 +1809,9 @@
       </c>
       <c r="L32" t="n">
         <v>22100.36</v>
+      </c>
+      <c r="M32" t="n">
+        <v>22094.79</v>
       </c>
     </row>
     <row r="33">
@@ -1753,6 +1851,9 @@
       <c r="L33" t="n">
         <v>84886.72</v>
       </c>
+      <c r="M33" t="n">
+        <v>80025.5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1793,6 +1894,9 @@
       <c r="L34" t="n">
         <v>98037.31</v>
       </c>
+      <c r="M34" t="n">
+        <v>98304.58</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1833,6 +1937,9 @@
       <c r="L35" t="n">
         <v>65858.35000000001</v>
       </c>
+      <c r="M35" t="n">
+        <v>65814.77</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1873,6 +1980,9 @@
       <c r="L36" t="n">
         <v>68660.81</v>
       </c>
+      <c r="M36" t="n">
+        <v>68646.23</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1912,6 +2022,9 @@
       </c>
       <c r="L37" t="n">
         <v>61114.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>59214.01</v>
       </c>
     </row>
     <row r="38">
@@ -1937,6 +2050,7 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1977,6 +2091,9 @@
       <c r="L39" t="n">
         <v>1217031.67</v>
       </c>
+      <c r="M39" t="n">
+        <v>1334142.98</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2017,6 +2134,9 @@
       <c r="L40" t="n">
         <v>469799.12</v>
       </c>
+      <c r="M40" t="n">
+        <v>469987.15</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2057,6 +2177,9 @@
       <c r="L41" t="n">
         <v>37017.81</v>
       </c>
+      <c r="M41" t="n">
+        <v>37003.6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2097,6 +2220,9 @@
       <c r="L42" t="n">
         <v>173729.3</v>
       </c>
+      <c r="M42" t="n">
+        <v>175379.71</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2136,6 +2262,9 @@
       </c>
       <c r="L43" t="n">
         <v>6775442.64</v>
+      </c>
+      <c r="M43" t="n">
+        <v>6839808.79</v>
       </c>
     </row>
   </sheetData>
